--- a/lastPage 쿠키 객체 정보 변경.xlsx
+++ b/lastPage 쿠키 객체 정보 변경.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>lastPage</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>60 * 60 * 24 * 7</t>
+  </si>
+  <si>
+    <t>com.test.SYJ_Mall.myPages</t>
+  </si>
+  <si>
+    <t>com.test.SYJ_Mall.newProduct</t>
+  </si>
+  <si>
+    <t>com.test.SYJ_Mall.productDetail</t>
   </si>
 </sst>
 </file>
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,6 +489,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
